--- a/overall_results_functionality.xlsx
+++ b/overall_results_functionality.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\raymond\acs\R255\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70611B8B-CFC3-46A8-9511-A2115C58C444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{61CC813B-89E2-456A-8E6D-EDE369A2A2DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3675" yWindow="1890" windowWidth="23145" windowHeight="12315"/>
   </bookViews>
   <sheets>
     <sheet name="overall_results_functionality" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">overall_results_functionality!$A$1:$D$88</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -968,11 +971,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -988,189 +998,189 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2">
-        <v>0.793548387096774</v>
+        <v>0.15780346820809199</v>
       </c>
       <c r="D2">
-        <v>3.8709677419354799E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.6745005954480499E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3">
-        <v>0.996</v>
+        <v>0.221804511278195</v>
       </c>
       <c r="D3">
-        <v>6.6332495807107997E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.1489863643071799E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4">
-        <v>0.81127819548872104</v>
+        <v>0.314893617021276</v>
       </c>
       <c r="D4">
-        <v>7.8530946149152001E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.2424733652698799E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.77571428571428502</v>
+        <v>0.31728395061728298</v>
       </c>
       <c r="D5">
-        <v>6.3983416218739098E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9.5157879864410502E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.221804511278195</v>
+        <v>0.31907514450867003</v>
       </c>
       <c r="D6">
-        <v>4.1489863643071799E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.30082664456376E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.75714285714285701</v>
+        <v>0.32716763005780303</v>
       </c>
       <c r="D7">
-        <v>5.3832696232619298E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.6173551968815398E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>0.44785714285714201</v>
+      </c>
+      <c r="D8">
+        <v>4.3571428571428497E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>0.53068783068782999</v>
+      </c>
+      <c r="D9">
+        <v>5.8203463153775101E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>0.53611111111111098</v>
+      </c>
+      <c r="D10">
+        <v>6.0762896817298198E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8">
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11">
         <v>0.60354609929077996</v>
       </c>
-      <c r="D8">
+      <c r="D11">
         <v>3.86443481583695E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9">
-        <v>0.53611111111111098</v>
-      </c>
-      <c r="D9">
-        <v>6.0762896817298198E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>0.99538461538461498</v>
-      </c>
-      <c r="D10">
-        <v>9.8509603652812902E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>0.61</v>
+      </c>
+      <c r="D12">
+        <v>6.4142698058981804E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>0.64511278195488697</v>
+      </c>
+      <c r="D13">
+        <v>4.0879029230280202E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11">
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14">
         <v>0.66390977443609001</v>
       </c>
-      <c r="D11">
+      <c r="D14">
         <v>6.4068798173752398E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12">
-        <v>0.85285714285714198</v>
-      </c>
-      <c r="D12">
-        <v>5.35666664550076E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13">
-        <v>0.87076923076922996</v>
-      </c>
-      <c r="D13">
-        <v>2.5926614686696402E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14">
-        <v>0.32716763005780303</v>
-      </c>
-      <c r="D14">
-        <v>5.6173551968815398E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1184,805 +1194,805 @@
         <v>2.9999999999999898E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
       </c>
       <c r="C16">
-        <v>0.31907514450867003</v>
+        <v>0.69920634920634905</v>
       </c>
       <c r="D16">
-        <v>4.30082664456376E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8.0425455971688195E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
       </c>
       <c r="C17">
-        <v>0.64511278195488697</v>
+        <v>0.744285714285714</v>
       </c>
       <c r="D17">
-        <v>4.0879029230280202E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7.9076300017703105E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>0.75714285714285701</v>
+      </c>
+      <c r="D18">
+        <v>5.3832696232619298E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>0.76142857142857101</v>
+      </c>
+      <c r="D19">
+        <v>9.00226728810751E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>0.77</v>
+      </c>
+      <c r="D20">
+        <v>5.6946089794270703E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>0.77571428571428502</v>
+      </c>
+      <c r="D21">
+        <v>6.3983416218739098E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>0.793548387096774</v>
+      </c>
+      <c r="D22">
+        <v>3.8709677419354799E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>0.81127819548872104</v>
+      </c>
+      <c r="D23">
+        <v>7.8530946149152001E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>21</v>
       </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18">
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24">
         <v>0.84586466165413499</v>
       </c>
-      <c r="D18">
+      <c r="D24">
         <v>5.4348993589477201E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19">
-        <v>0.15780346820809199</v>
-      </c>
-      <c r="D19">
-        <v>3.6745005954480499E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20">
-        <v>0.31728395061728298</v>
-      </c>
-      <c r="D20">
-        <v>9.5157879864410502E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21">
-        <v>0.77</v>
-      </c>
-      <c r="D21">
-        <v>5.6946089794270703E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22">
-        <v>0.44785714285714201</v>
-      </c>
-      <c r="D22">
-        <v>4.3571428571428497E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>0.85285714285714198</v>
+      </c>
+      <c r="D25">
+        <v>5.35666664550076E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>0.86285714285714199</v>
+      </c>
+      <c r="D26">
+        <v>6.88684045325368E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>0.87076923076922996</v>
+      </c>
+      <c r="D27">
+        <v>2.5926614686696402E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>26</v>
       </c>
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23">
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28">
         <v>0.90785714285714203</v>
       </c>
-      <c r="D23">
+      <c r="D28">
         <v>4.7536237519928103E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24">
-        <v>0.86285714285714199</v>
-      </c>
-      <c r="D24">
-        <v>6.88684045325368E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25">
-        <v>0.69920634920634905</v>
-      </c>
-      <c r="D25">
-        <v>8.0425455971688195E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26">
-        <v>0.76142857142857101</v>
-      </c>
-      <c r="D26">
-        <v>9.00226728810751E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27">
-        <v>0.61</v>
-      </c>
-      <c r="D27">
-        <v>6.4142698058981804E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28">
-        <v>0.53068783068782999</v>
-      </c>
-      <c r="D28">
-        <v>5.8203463153775101E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>
       </c>
       <c r="C29">
-        <v>0.744285714285714</v>
+        <v>0.99538461538461498</v>
       </c>
       <c r="D29">
-        <v>7.9076300017703105E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9.8509603652812902E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B30" t="s">
         <v>5</v>
       </c>
       <c r="C30">
-        <v>0.314893617021276</v>
+        <v>0.996</v>
       </c>
       <c r="D30">
-        <v>5.2424733652698799E-2</v>
+        <v>6.6332495807107997E-3</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B31" t="s">
         <v>34</v>
       </c>
       <c r="C31">
-        <v>0.68709677419354798</v>
+        <v>7.3988439306358303E-2</v>
       </c>
       <c r="D31">
-        <v>6.9261001785754395E-2</v>
+        <v>2.60821136940542E-2</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B32" t="s">
         <v>34</v>
       </c>
       <c r="C32">
-        <v>0.996</v>
+        <v>0.23641618497109801</v>
       </c>
       <c r="D32">
-        <v>6.6332495807107997E-3</v>
+        <v>5.3445550581335502E-2</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B33" t="s">
         <v>34</v>
       </c>
       <c r="C33">
-        <v>0.79849624060150304</v>
+        <v>0.24661654135338301</v>
       </c>
       <c r="D33">
-        <v>7.3806864311627196E-2</v>
+        <v>6.7064971792414302E-2</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>34</v>
       </c>
       <c r="C34">
-        <v>0.73142857142857098</v>
+        <v>0.32269503546099199</v>
       </c>
       <c r="D34">
-        <v>7.1371405695981605E-2</v>
+        <v>8.4230122554798004E-2</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B35" t="s">
         <v>34</v>
       </c>
       <c r="C35">
-        <v>0.24661654135338301</v>
+        <v>0.329479768786127</v>
       </c>
       <c r="D35">
-        <v>6.7064971792414302E-2</v>
+        <v>6.9844196379159298E-2</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B36" t="s">
         <v>34</v>
       </c>
       <c r="C36">
-        <v>0.73499999999999999</v>
+        <v>0.33703703703703702</v>
       </c>
       <c r="D36">
-        <v>6.0224918566375199E-2</v>
+        <v>6.0241347648176999E-2</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B37" t="s">
         <v>34</v>
       </c>
       <c r="C37">
-        <v>0.49361702127659501</v>
+        <v>0.44571428571428501</v>
       </c>
       <c r="D37">
-        <v>8.0251603743634797E-2</v>
+        <v>7.7604439174520395E-2</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B38" t="s">
         <v>34</v>
       </c>
       <c r="C38">
-        <v>0.595138888888888</v>
+        <v>0.47518796992481199</v>
       </c>
       <c r="D38">
-        <v>8.0090250982682798E-2</v>
+        <v>6.7819382158073205E-2</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B39" t="s">
         <v>34</v>
       </c>
       <c r="C39">
-        <v>0.99384615384615305</v>
+        <v>0.49361702127659501</v>
       </c>
       <c r="D39">
-        <v>1.2307692307692301E-2</v>
+        <v>8.0251603743634797E-2</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B40" t="s">
         <v>34</v>
       </c>
       <c r="C40">
-        <v>0.47518796992481199</v>
+        <v>0.51571428571428501</v>
       </c>
       <c r="D40">
-        <v>6.7819382158073205E-2</v>
+        <v>0.10948860717919801</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B41" t="s">
         <v>34</v>
       </c>
       <c r="C41">
-        <v>0.80999999999999905</v>
+        <v>0.57368421052631502</v>
       </c>
       <c r="D41">
-        <v>7.6411880687521902E-2</v>
+        <v>6.50321611012592E-2</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B42" t="s">
         <v>34</v>
       </c>
       <c r="C42">
-        <v>0.82615384615384602</v>
+        <v>0.595138888888888</v>
       </c>
       <c r="D42">
-        <v>5.2420692422771697E-2</v>
+        <v>8.0090250982682798E-2</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B43" t="s">
         <v>34</v>
       </c>
       <c r="C43">
-        <v>0.329479768786127</v>
+        <v>0.67</v>
       </c>
       <c r="D43">
-        <v>6.9844196379159298E-2</v>
+        <v>3.7859388972001799E-2</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B44" t="s">
         <v>34</v>
       </c>
       <c r="C44">
-        <v>0.67</v>
+        <v>0.68709677419354798</v>
       </c>
       <c r="D44">
-        <v>3.7859388972001799E-2</v>
+        <v>6.9261001785754395E-2</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B45" t="s">
         <v>34</v>
       </c>
       <c r="C45">
-        <v>0.23641618497109801</v>
+        <v>0.70571428571428496</v>
       </c>
       <c r="D45">
-        <v>5.3445550581335502E-2</v>
+        <v>7.0261900727759605E-2</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B46" t="s">
         <v>34</v>
       </c>
       <c r="C46">
-        <v>0.57368421052631502</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="D46">
-        <v>6.50321611012592E-2</v>
+        <v>4.5875830638089699E-2</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B47" t="s">
         <v>34</v>
       </c>
       <c r="C47">
-        <v>0.80902255639097698</v>
+        <v>0.73142857142857098</v>
       </c>
       <c r="D47">
-        <v>7.2055028876456706E-2</v>
+        <v>7.1371405695981605E-2</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B48" t="s">
         <v>34</v>
       </c>
       <c r="C48">
-        <v>7.3988439306358303E-2</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="D48">
-        <v>2.60821136940542E-2</v>
+        <v>6.0224918566375199E-2</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B49" t="s">
         <v>34</v>
       </c>
       <c r="C49">
-        <v>0.33703703703703702</v>
+        <v>0.76071428571428501</v>
       </c>
       <c r="D49">
-        <v>6.0241347648176999E-2</v>
+        <v>9.8522244458097999E-2</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B50" t="s">
         <v>34</v>
       </c>
       <c r="C50">
-        <v>0.76071428571428501</v>
+        <v>0.79849624060150304</v>
       </c>
       <c r="D50">
-        <v>9.8522244458097999E-2</v>
+        <v>7.3806864311627196E-2</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B51" t="s">
         <v>34</v>
       </c>
       <c r="C51">
-        <v>0.44571428571428501</v>
+        <v>0.80902255639097698</v>
       </c>
       <c r="D51">
-        <v>7.7604439174520395E-2</v>
+        <v>7.2055028876456706E-2</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B52" t="s">
         <v>34</v>
       </c>
       <c r="C52">
-        <v>0.90642857142857103</v>
+        <v>0.80999999999999905</v>
       </c>
       <c r="D52">
-        <v>5.4158685963621001E-2</v>
+        <v>7.6411880687521902E-2</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B53" t="s">
         <v>34</v>
       </c>
       <c r="C53">
-        <v>0.83857142857142797</v>
+        <v>0.82615384615384602</v>
       </c>
       <c r="D53">
-        <v>7.2787081159182795E-2</v>
+        <v>5.2420692422771697E-2</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B54" t="s">
         <v>34</v>
       </c>
       <c r="C54">
-        <v>0.90714285714285703</v>
+        <v>0.83857142857142797</v>
       </c>
       <c r="D54">
-        <v>7.6045662642601305E-2</v>
+        <v>7.2787081159182795E-2</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B55" t="s">
         <v>34</v>
       </c>
       <c r="C55">
-        <v>0.70571428571428496</v>
+        <v>0.90634920634920602</v>
       </c>
       <c r="D55">
-        <v>7.0261900727759605E-2</v>
+        <v>5.3229196224457702E-2</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B56" t="s">
         <v>34</v>
       </c>
       <c r="C56">
-        <v>0.51571428571428501</v>
+        <v>0.90642857142857103</v>
       </c>
       <c r="D56">
-        <v>0.10948860717919801</v>
+        <v>5.4158685963621001E-2</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B57" t="s">
         <v>34</v>
       </c>
       <c r="C57">
-        <v>0.90634920634920602</v>
+        <v>0.90714285714285703</v>
       </c>
       <c r="D57">
-        <v>5.3229196224457702E-2</v>
+        <v>7.6045662642601305E-2</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B58" t="s">
         <v>34</v>
       </c>
       <c r="C58">
-        <v>0.72499999999999998</v>
+        <v>0.99384615384615305</v>
       </c>
       <c r="D58">
-        <v>4.5875830638089699E-2</v>
+        <v>1.2307692307692301E-2</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" t="s">
+        <v>34</v>
+      </c>
+      <c r="C59">
+        <v>0.996</v>
+      </c>
+      <c r="D59">
+        <v>6.6332495807107997E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>22</v>
+      </c>
+      <c r="B60" t="s">
+        <v>35</v>
+      </c>
+      <c r="C60">
+        <v>0.16358381502890099</v>
+      </c>
+      <c r="D60">
+        <v>5.7516629348465798E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" t="s">
+        <v>35</v>
+      </c>
+      <c r="C61">
+        <v>0.209022556390977</v>
+      </c>
+      <c r="D61">
+        <v>7.2570998568503103E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>19</v>
+      </c>
+      <c r="B62" t="s">
+        <v>35</v>
+      </c>
+      <c r="C62">
+        <v>0.25722543352601102</v>
+      </c>
+      <c r="D62">
+        <v>5.5397922348477201E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>33</v>
       </c>
-      <c r="B59" t="s">
-        <v>34</v>
-      </c>
-      <c r="C59">
-        <v>0.32269503546099199</v>
-      </c>
-      <c r="D59">
-        <v>8.4230122554798004E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>4</v>
-      </c>
-      <c r="B60" t="s">
-        <v>35</v>
-      </c>
-      <c r="C60">
-        <v>0.81451612903225801</v>
-      </c>
-      <c r="D60">
-        <v>7.4351164978168405E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>6</v>
-      </c>
-      <c r="B61" t="s">
-        <v>35</v>
-      </c>
-      <c r="C61">
-        <v>0.98699999999999999</v>
-      </c>
-      <c r="D61">
-        <v>2.0999999999999901E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>7</v>
-      </c>
-      <c r="B62" t="s">
-        <v>35</v>
-      </c>
-      <c r="C62">
-        <v>0.86390977443608996</v>
-      </c>
-      <c r="D62">
-        <v>5.8186939590814502E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>8</v>
-      </c>
       <c r="B63" t="s">
         <v>35</v>
       </c>
       <c r="C63">
-        <v>0.84928571428571398</v>
+        <v>0.27517730496453902</v>
       </c>
       <c r="D63">
-        <v>6.9726140678210105E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6.7042849918277803E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B64" t="s">
         <v>35</v>
       </c>
       <c r="C64">
-        <v>0.209022556390977</v>
+        <v>0.30987654320987601</v>
       </c>
       <c r="D64">
-        <v>7.2570998568503103E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6.6357306915440395E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B65" t="s">
         <v>35</v>
       </c>
       <c r="C65">
-        <v>0.80214285714285705</v>
+        <v>0.34508670520231199</v>
       </c>
       <c r="D65">
-        <v>8.1004535020439097E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6.8931696166151801E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>25</v>
+      </c>
+      <c r="B66" t="s">
+        <v>35</v>
+      </c>
+      <c r="C66">
+        <v>0.42928571428571399</v>
+      </c>
+      <c r="D66">
+        <v>6.2552019168375494E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>31</v>
+      </c>
+      <c r="B67" t="s">
+        <v>35</v>
+      </c>
+      <c r="C67">
+        <v>0.51269841269841199</v>
+      </c>
+      <c r="D67">
+        <v>0.123371222551257</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>12</v>
+      </c>
+      <c r="B68" t="s">
+        <v>35</v>
+      </c>
+      <c r="C68">
+        <v>0.52569444444444402</v>
+      </c>
+      <c r="D68">
+        <v>5.7689067849833603E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>11</v>
       </c>
-      <c r="B66" t="s">
-        <v>35</v>
-      </c>
-      <c r="C66">
+      <c r="B69" t="s">
+        <v>35</v>
+      </c>
+      <c r="C69">
         <v>0.58226950354609897</v>
       </c>
-      <c r="D66">
+      <c r="D69">
         <v>7.2496702286812001E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>12</v>
-      </c>
-      <c r="B67" t="s">
-        <v>35</v>
-      </c>
-      <c r="C67">
-        <v>0.52569444444444402</v>
-      </c>
-      <c r="D67">
-        <v>5.7689067849833603E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>13</v>
-      </c>
-      <c r="B68" t="s">
-        <v>35</v>
-      </c>
-      <c r="C68">
-        <v>0.99846153846153796</v>
-      </c>
-      <c r="D68">
-        <v>4.6153846153845898E-3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>30</v>
+      </c>
+      <c r="B70" t="s">
+        <v>35</v>
+      </c>
+      <c r="C70">
+        <v>0.65142857142857102</v>
+      </c>
+      <c r="D70">
+        <v>8.1865993039396498E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>14</v>
       </c>
-      <c r="B69" t="s">
-        <v>35</v>
-      </c>
-      <c r="C69">
+      <c r="B71" t="s">
+        <v>35</v>
+      </c>
+      <c r="C71">
         <v>0.65263157894736801</v>
       </c>
-      <c r="D69">
+      <c r="D71">
         <v>0.11115620218091</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>15</v>
-      </c>
-      <c r="B70" t="s">
-        <v>35</v>
-      </c>
-      <c r="C70">
-        <v>0.89571428571428502</v>
-      </c>
-      <c r="D70">
-        <v>5.3851648071345001E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>16</v>
-      </c>
-      <c r="B71" t="s">
-        <v>35</v>
-      </c>
-      <c r="C71">
-        <v>0.93692307692307697</v>
-      </c>
-      <c r="D71">
-        <v>5.7337369703336E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B72" t="s">
         <v>35</v>
       </c>
       <c r="C72">
-        <v>0.34508670520231199</v>
+        <v>0.66691729323308202</v>
       </c>
       <c r="D72">
-        <v>6.8931696166151801E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9.0166020452696602E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>18</v>
       </c>
@@ -1996,217 +2006,227 @@
         <v>3.5901098714230001E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B74" t="s">
         <v>35</v>
       </c>
       <c r="C74">
-        <v>0.25722543352601102</v>
+        <v>0.72142857142857097</v>
       </c>
       <c r="D74">
-        <v>5.5397922348477201E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.13903393786430299</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B75" t="s">
         <v>35</v>
       </c>
       <c r="C75">
-        <v>0.66691729323308202</v>
+        <v>0.79428571428571404</v>
       </c>
       <c r="D75">
-        <v>9.0166020452696602E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8.0483234405732906E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>24</v>
+      </c>
+      <c r="B76" t="s">
+        <v>35</v>
+      </c>
+      <c r="C76">
+        <v>0.79928571428571404</v>
+      </c>
+      <c r="D76">
+        <v>9.0206678787987604E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>10</v>
+      </c>
+      <c r="B77" t="s">
+        <v>35</v>
+      </c>
+      <c r="C77">
+        <v>0.80214285714285705</v>
+      </c>
+      <c r="D77">
+        <v>8.1004535020439097E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>29</v>
+      </c>
+      <c r="B78" t="s">
+        <v>35</v>
+      </c>
+      <c r="C78">
+        <v>0.80428571428571405</v>
+      </c>
+      <c r="D78">
+        <v>8.4467117137682707E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>4</v>
+      </c>
+      <c r="B79" t="s">
+        <v>35</v>
+      </c>
+      <c r="C79">
+        <v>0.81451612903225801</v>
+      </c>
+      <c r="D79">
+        <v>7.4351164978168405E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" t="s">
+        <v>35</v>
+      </c>
+      <c r="C80">
+        <v>0.84928571428571398</v>
+      </c>
+      <c r="D80">
+        <v>6.9726140678210105E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81" t="s">
+        <v>35</v>
+      </c>
+      <c r="C81">
+        <v>0.86390977443608996</v>
+      </c>
+      <c r="D81">
+        <v>5.8186939590814502E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>15</v>
+      </c>
+      <c r="B82" t="s">
+        <v>35</v>
+      </c>
+      <c r="C82">
+        <v>0.89571428571428502</v>
+      </c>
+      <c r="D82">
+        <v>5.3851648071345001E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>21</v>
       </c>
-      <c r="B76" t="s">
-        <v>35</v>
-      </c>
-      <c r="C76">
+      <c r="B83" t="s">
+        <v>35</v>
+      </c>
+      <c r="C83">
         <v>0.89849624060150302</v>
       </c>
-      <c r="D76">
+      <c r="D83">
         <v>5.7483157664804198E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>22</v>
-      </c>
-      <c r="B77" t="s">
-        <v>35</v>
-      </c>
-      <c r="C77">
-        <v>0.16358381502890099</v>
-      </c>
-      <c r="D77">
-        <v>5.7516629348465798E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>23</v>
-      </c>
-      <c r="B78" t="s">
-        <v>35</v>
-      </c>
-      <c r="C78">
-        <v>0.30987654320987601</v>
-      </c>
-      <c r="D78">
-        <v>6.6357306915440395E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>24</v>
-      </c>
-      <c r="B79" t="s">
-        <v>35</v>
-      </c>
-      <c r="C79">
-        <v>0.79928571428571404</v>
-      </c>
-      <c r="D79">
-        <v>9.0206678787987604E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>25</v>
-      </c>
-      <c r="B80" t="s">
-        <v>35</v>
-      </c>
-      <c r="C80">
-        <v>0.42928571428571399</v>
-      </c>
-      <c r="D80">
-        <v>6.2552019168375494E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>27</v>
+      </c>
+      <c r="B84" t="s">
+        <v>35</v>
+      </c>
+      <c r="C84">
+        <v>0.92571428571428505</v>
+      </c>
+      <c r="D84">
+        <v>4.5870269594292301E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>26</v>
       </c>
-      <c r="B81" t="s">
-        <v>35</v>
-      </c>
-      <c r="C81">
+      <c r="B85" t="s">
+        <v>35</v>
+      </c>
+      <c r="C85">
         <v>0.92928571428571405</v>
       </c>
-      <c r="D81">
+      <c r="D85">
         <v>3.6344440666310103E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>27</v>
-      </c>
-      <c r="B82" t="s">
-        <v>35</v>
-      </c>
-      <c r="C82">
-        <v>0.92571428571428505</v>
-      </c>
-      <c r="D82">
-        <v>4.5870269594292301E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>28</v>
-      </c>
-      <c r="B83" t="s">
-        <v>35</v>
-      </c>
-      <c r="C83">
-        <v>0.72142857142857097</v>
-      </c>
-      <c r="D83">
-        <v>0.13903393786430299</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>29</v>
-      </c>
-      <c r="B84" t="s">
-        <v>35</v>
-      </c>
-      <c r="C84">
-        <v>0.80428571428571405</v>
-      </c>
-      <c r="D84">
-        <v>8.4467117137682707E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>30</v>
-      </c>
-      <c r="B85" t="s">
-        <v>35</v>
-      </c>
-      <c r="C85">
-        <v>0.65142857142857102</v>
-      </c>
-      <c r="D85">
-        <v>8.1865993039396498E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B86" t="s">
         <v>35</v>
       </c>
       <c r="C86">
-        <v>0.51269841269841199</v>
+        <v>0.93692307692307697</v>
       </c>
       <c r="D86">
-        <v>0.123371222551257</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.7337369703336E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B87" t="s">
         <v>35</v>
       </c>
       <c r="C87">
-        <v>0.79428571428571404</v>
+        <v>0.98699999999999999</v>
       </c>
       <c r="D87">
-        <v>8.0483234405732906E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.0999999999999901E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B88" t="s">
         <v>35</v>
       </c>
       <c r="C88">
-        <v>0.27517730496453902</v>
+        <v>0.99846153846153796</v>
       </c>
       <c r="D88">
-        <v>6.7042849918277803E-2</v>
+        <v>4.6153846153845898E-3</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D88">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="SOC"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A31:D59">
+      <sortCondition ref="C1:C88"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>